--- a/C.1.2_global_tempest.xlsx
+++ b/C.1.2_global_tempest.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/houriiyahtegally/Documents/KRISP/2021_Manuscripts/C.1_SA_July2021/V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josie/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D20F99A7-E1D0-DA45-AB4A-9A5ACFDDD976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F26E4-1A78-FA4B-A5F5-13D671A14E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2460" windowWidth="26440" windowHeight="14480"/>
+    <workbookView xWindow="460" yWindow="1100" windowWidth="26440" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C.1.2_global_tempest" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="344">
   <si>
     <t>tip</t>
   </si>
@@ -586,13 +585,490 @@
   </si>
   <si>
     <t>Cape Town</t>
+  </si>
+  <si>
+    <t>accession</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3453877</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2718062</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2803815</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3287712</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3697115</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4301764</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4301774</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4301791</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4301822</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4301828</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4301836</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3236186</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3164100</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2989113</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2931281</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3267751</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3827640</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2726854</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2726855</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2770450</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3132529</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3132566</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3132608</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3132623</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3729063</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3267757</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3447713</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3447714</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3447773</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3261918</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3261970</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3730315</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3447758</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3663539</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3722231</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3722264</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3722270</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3799163</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3799102</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3799095</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3799137</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3799035</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3799162</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3859884</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3860060</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3860015</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3859890</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4003563</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4003556</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3506424</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3281601</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3281600</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3717994</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2984801</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2988404</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2988405</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3149307</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2988409</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3149313</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3237084</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3237092</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3237098</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3236951</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3237100</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3236953</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3101505</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3149299</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3149300</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3149301</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3074033</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3149306</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838300</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838321</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3411681</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451144</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838375</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3237233</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3411589</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3237237</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451195</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451214</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451222</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451295</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451301</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3411463</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3411467</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3411457</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451358</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451362</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451369</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451378</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451391</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3411459</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3643965</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3643862</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3643860</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3411458</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3643903</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3717995</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4030025</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4029946</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4030022</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4029964</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4029943</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4029948</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4029923</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838489</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3643842</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838512</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838515</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838520</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838541</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838556</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838621</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838634</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3717982</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3717911</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3718000</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3717932</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3717972</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3717993</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3838569</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2695610</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3342730</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3342731</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3342732</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3342733</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3342734</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3342735</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2828749</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2827937</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2942287</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3643966</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4029912</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4030023</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4029941</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4030024</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4030021</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3219805</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3219868</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451544</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3451569</t>
+  </si>
+  <si>
+    <t>EPI_ISL_4029935</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3118719</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3482519</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3746811</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3746772</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3746842</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3746871</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3746752</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3746788</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3746874</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2841668</t>
+  </si>
+  <si>
+    <t>EPI_ISL_2841677</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3729072</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3729227</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3128775</t>
+  </si>
+  <si>
+    <t>EPI_ISL_3722284</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -723,6 +1199,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1069,9 +1552,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1426,11 +1910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1438,7 +1922,7 @@
     <col min="1" max="1" width="58.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1457,8 +1941,11 @@
       <c r="F1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -1477,8 +1964,11 @@
       <c r="F2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1497,8 +1987,11 @@
       <c r="F3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1517,8 +2010,11 @@
       <c r="F4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1537,8 +2033,11 @@
       <c r="F5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -1557,8 +2056,11 @@
       <c r="F6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1577,8 +2079,11 @@
       <c r="F7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1597,8 +2102,11 @@
       <c r="F8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1617,8 +2125,11 @@
       <c r="F9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1637,8 +2148,11 @@
       <c r="F10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -1657,8 +2171,11 @@
       <c r="F11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1677,8 +2194,11 @@
       <c r="F12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -1697,8 +2217,11 @@
       <c r="F13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -1717,8 +2240,11 @@
       <c r="F14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -1737,8 +2263,11 @@
       <c r="F15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +2286,11 @@
       <c r="F16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -1777,8 +2309,11 @@
       <c r="F17" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1797,8 +2332,11 @@
       <c r="F18" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1817,8 +2355,11 @@
       <c r="F19" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1837,8 +2378,11 @@
       <c r="F20" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1857,8 +2401,11 @@
       <c r="F21" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -1877,8 +2424,11 @@
       <c r="F22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1897,8 +2447,11 @@
       <c r="F23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1917,8 +2470,11 @@
       <c r="F24" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1937,8 +2493,11 @@
       <c r="F25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -1957,8 +2516,11 @@
       <c r="F26" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -1977,8 +2539,11 @@
       <c r="F27" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1997,8 +2562,11 @@
       <c r="F28" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2017,8 +2585,11 @@
       <c r="F29" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -2037,8 +2608,11 @@
       <c r="F30" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2057,8 +2631,11 @@
       <c r="F31" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -2077,8 +2654,11 @@
       <c r="F32" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2097,8 +2677,11 @@
       <c r="F33" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2117,8 +2700,11 @@
       <c r="F34" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2137,8 +2723,11 @@
       <c r="F35" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -2157,8 +2746,11 @@
       <c r="F36" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -2177,8 +2769,11 @@
       <c r="F37" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -2197,8 +2792,11 @@
       <c r="F38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -2217,8 +2815,11 @@
       <c r="F39" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2237,8 +2838,11 @@
       <c r="F40" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -2257,8 +2861,11 @@
       <c r="F41" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -2277,8 +2884,11 @@
       <c r="F42" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -2297,8 +2907,11 @@
       <c r="F43" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -2317,8 +2930,11 @@
       <c r="F44" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -2337,8 +2953,11 @@
       <c r="F45" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -2357,8 +2976,11 @@
       <c r="F46" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -2377,8 +2999,11 @@
       <c r="F47" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -2397,8 +3022,11 @@
       <c r="F48" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2417,8 +3045,11 @@
       <c r="F49" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -2437,8 +3068,11 @@
       <c r="F50" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2457,8 +3091,11 @@
       <c r="F51" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -2477,8 +3114,11 @@
       <c r="F52" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -2497,8 +3137,11 @@
       <c r="F53" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2517,8 +3160,11 @@
       <c r="F54" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -2537,8 +3183,11 @@
       <c r="F55" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -2557,8 +3206,11 @@
       <c r="F56" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -2577,8 +3229,11 @@
       <c r="F57" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -2597,8 +3252,11 @@
       <c r="F58" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -2617,8 +3275,11 @@
       <c r="F59" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -2637,8 +3298,11 @@
       <c r="F60" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2657,8 +3321,11 @@
       <c r="F61" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -2677,8 +3344,11 @@
       <c r="F62" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -2697,8 +3367,11 @@
       <c r="F63" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2717,8 +3390,11 @@
       <c r="F64" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -2737,8 +3413,11 @@
       <c r="F65" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2757,8 +3436,11 @@
       <c r="F66" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -2777,8 +3459,11 @@
       <c r="F67" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -2797,8 +3482,11 @@
       <c r="F68" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2817,8 +3505,11 @@
       <c r="F69" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -2837,8 +3528,11 @@
       <c r="F70" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -2857,8 +3551,11 @@
       <c r="F71" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -2877,8 +3574,11 @@
       <c r="F72" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -2897,8 +3597,11 @@
       <c r="F73" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2917,8 +3620,11 @@
       <c r="F74" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -2937,8 +3643,11 @@
       <c r="F75" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2957,8 +3666,11 @@
       <c r="F76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -2977,8 +3689,11 @@
       <c r="F77" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -2997,8 +3712,11 @@
       <c r="F78" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3017,8 +3735,11 @@
       <c r="F79" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -3037,8 +3758,11 @@
       <c r="F80" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -3057,8 +3781,11 @@
       <c r="F81" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3077,8 +3804,11 @@
       <c r="F82" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -3097,8 +3827,11 @@
       <c r="F83" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3117,8 +3850,11 @@
       <c r="F84" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -3137,8 +3873,11 @@
       <c r="F85" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -3157,8 +3896,11 @@
       <c r="F86" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -3177,8 +3919,11 @@
       <c r="F87" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -3197,8 +3942,11 @@
       <c r="F88" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -3217,8 +3965,11 @@
       <c r="F89" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -3237,8 +3988,11 @@
       <c r="F90" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -3257,8 +4011,11 @@
       <c r="F91" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3277,8 +4034,11 @@
       <c r="F92" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3297,8 +4057,11 @@
       <c r="F93" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -3317,8 +4080,11 @@
       <c r="F94" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +4103,11 @@
       <c r="F95" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -3357,8 +4126,11 @@
       <c r="F96" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -3377,8 +4149,11 @@
       <c r="F97" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3397,8 +4172,11 @@
       <c r="F98" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -3417,8 +4195,11 @@
       <c r="F99" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -3437,8 +4218,11 @@
       <c r="F100" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -3457,8 +4241,11 @@
       <c r="F101" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>125</v>
       </c>
@@ -3477,8 +4264,11 @@
       <c r="F102" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3497,8 +4287,11 @@
       <c r="F103" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -3517,8 +4310,11 @@
       <c r="F104" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -3537,8 +4333,11 @@
       <c r="F105" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -3557,8 +4356,11 @@
       <c r="F106" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -3577,8 +4379,11 @@
       <c r="F107" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -3597,8 +4402,11 @@
       <c r="F108" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -3617,8 +4425,11 @@
       <c r="F109" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -3637,8 +4448,11 @@
       <c r="F110" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -3657,8 +4471,11 @@
       <c r="F111" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3677,8 +4494,11 @@
       <c r="F112" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -3697,8 +4517,11 @@
       <c r="F113" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3717,8 +4540,11 @@
       <c r="F114" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -3737,8 +4563,11 @@
       <c r="F115" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3757,8 +4586,11 @@
       <c r="F116" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3777,8 +4609,11 @@
       <c r="F117" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -3797,8 +4632,11 @@
       <c r="F118" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -3817,8 +4655,11 @@
       <c r="F119" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>38</v>
       </c>
@@ -3837,8 +4678,11 @@
       <c r="F120" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -3857,8 +4701,11 @@
       <c r="F121" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>150</v>
       </c>
@@ -3877,8 +4724,11 @@
       <c r="F122" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>143</v>
       </c>
@@ -3897,8 +4747,11 @@
       <c r="F123" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -3917,8 +4770,11 @@
       <c r="F124" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -3937,8 +4793,11 @@
       <c r="F125" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -3957,8 +4816,11 @@
       <c r="F126" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -3977,8 +4839,11 @@
       <c r="F127" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -3997,8 +4862,11 @@
       <c r="F128" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>103</v>
       </c>
@@ -4017,8 +4885,11 @@
       <c r="F129" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>119</v>
       </c>
@@ -4037,8 +4908,11 @@
       <c r="F130" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -4057,8 +4931,11 @@
       <c r="F131" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -4077,8 +4954,11 @@
       <c r="F132" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -4097,8 +4977,11 @@
       <c r="F133" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>87</v>
       </c>
@@ -4117,8 +5000,11 @@
       <c r="F134" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>57</v>
       </c>
@@ -4137,8 +5023,11 @@
       <c r="F135" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -4157,8 +5046,11 @@
       <c r="F136" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>102</v>
       </c>
@@ -4177,8 +5069,11 @@
       <c r="F137" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -4197,8 +5092,11 @@
       <c r="F138" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>161</v>
       </c>
@@ -4217,8 +5115,11 @@
       <c r="F139" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -4237,8 +5138,11 @@
       <c r="F140" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>40</v>
       </c>
@@ -4257,8 +5161,11 @@
       <c r="F141" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>81</v>
       </c>
@@ -4277,8 +5184,11 @@
       <c r="F142" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -4297,8 +5207,11 @@
       <c r="F143" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -4317,8 +5230,11 @@
       <c r="F144" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>117</v>
       </c>
@@ -4337,8 +5253,11 @@
       <c r="F145" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4357,8 +5276,11 @@
       <c r="F146" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>130</v>
       </c>
@@ -4377,8 +5299,11 @@
       <c r="F147" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -4397,8 +5322,11 @@
       <c r="F148" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -4417,8 +5345,11 @@
       <c r="F149" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -4437,8 +5368,11 @@
       <c r="F150" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>129</v>
       </c>
@@ -4457,8 +5391,11 @@
       <c r="F151" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>138</v>
       </c>
@@ -4477,8 +5414,11 @@
       <c r="F152" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>76</v>
       </c>
@@ -4497,8 +5437,11 @@
       <c r="F153" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>105</v>
       </c>
@@ -4517,8 +5460,11 @@
       <c r="F154" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -4537,8 +5483,11 @@
       <c r="F155" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>91</v>
       </c>
@@ -4557,8 +5506,11 @@
       <c r="F156" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>108</v>
       </c>
@@ -4577,8 +5529,11 @@
       <c r="F157" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -4597,8 +5552,11 @@
       <c r="F158" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -4617,6 +5575,159 @@
       <c r="F159" t="s">
         <v>172</v>
       </c>
+      <c r="G159" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G209" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D159">
@@ -4624,4 +5735,16 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86B5EAD-DBD2-2148-B604-D6800C98806C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>